--- a/medicine/Enfance/Collection_Fantasia/Collection_Fantasia.xlsx
+++ b/medicine/Enfance/Collection_Fantasia/Collection_Fantasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fantasia est une collection française de livres pour la jeunesse, créée et éditée de 1956 à 1985 par les éditions Magnard. Deux cents volumes environ sont parus, avec une large prédominance pour les auteurs français.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Livres de luxe souvent décernés comme prix scolaires, ils sont, dans les premières années, brochés, sans numérotation et comportent une jaquette. Les pages sont en papier épais. La cartonnage écru est décoré de losanges dans lesquels figure une dorure en forme de cheval cabré.
 Dans les années 1960, la jaquette papier est plastifiée avec du Rhodoïd.
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
